--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38057.14359208897</v>
+        <v>7573371.574825705</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38057.14359208897</v>
+        <v>7573371.574825705</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9026.029239952812</v>
+        <v>542883.2620536094</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9026.029239952812</v>
+        <v>542883.2620536094</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188769869.149699</v>
+        <v>48098017.44791254</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9636.62210348671</v>
+        <v>1049650.77443742</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18800.8103306589</v>
+        <v>2025667.98069518</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27964.99855783108</v>
+        <v>3001685.186952942</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37765.48577937578</v>
+        <v>3981740.495488794</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47475.06067768542</v>
+        <v>4943704.251701728</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57108.5801517268</v>
+        <v>5919422.966551818</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66742.09962576817</v>
+        <v>6895141.681401906</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77457.84299164977</v>
+        <v>7915037.330503523</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88165.33052949501</v>
+        <v>8814632.227983268</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98995.03089363679</v>
+        <v>9738547.477896521</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109012.7755688325</v>
+        <v>10714564.68415428</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>118588.8669106949</v>
+        <v>11672553.3748565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128255.5538081128</v>
+        <v>12648570.58111426</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>138057.5627607833</v>
+        <v>13607044.02525503</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147859.571713458</v>
+        <v>14565517.46939533</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>318.0000000001242</v>
@@ -27055,7 +27055,7 @@
         <v>31.00000000009823</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>386</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>287</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>701</v>
